--- a/data/trans_bre/P15-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P15-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.92660823338733</v>
+        <v>-3.078913488373296</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.359260920084205</v>
+        <v>-2.551621823429255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.25233404695059</v>
+        <v>-3.32069878509409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.843163771355217</v>
+        <v>-3.810070187422031</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4515544362872141</v>
+        <v>-0.4558948038840666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2678447713406251</v>
+        <v>-0.2912810212592001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4224226012331502</v>
+        <v>-0.4185562822141841</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3749069987486349</v>
+        <v>-0.3596774163086824</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.521886322860207</v>
+        <v>1.543828551086075</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.062750011138156</v>
+        <v>2.206429839393729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7621581586975309</v>
+        <v>0.9203513443579305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.667214583957743</v>
+        <v>2.535403111397284</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4229525653659426</v>
+        <v>0.4338811856926867</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3198773179982826</v>
+        <v>0.3494512445642629</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1373639888816156</v>
+        <v>0.1717705397896717</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4232119408180229</v>
+        <v>0.3801512417498134</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.5697895248841761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.412479827028177</v>
+        <v>1.412479827028176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2740912129236075</v>
@@ -749,7 +749,7 @@
         <v>-0.1033554597899014</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2746237862455015</v>
+        <v>0.2746237862455014</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.039503071246107</v>
+        <v>-3.980531497885806</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.834210588071038</v>
+        <v>-4.85479468780756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.492032783572301</v>
+        <v>-2.708212697449902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6081685682081468</v>
+        <v>-0.5646058461042539</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4789128275262035</v>
+        <v>-0.482250787917563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4283878569682112</v>
+        <v>-0.4231698360421513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3981018700277251</v>
+        <v>-0.4195059944966252</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09925209835909547</v>
+        <v>-0.09815573240322865</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02170152552828481</v>
+        <v>0.1270380226800949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.385949023069233</v>
+        <v>0.2049880927708369</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.614114630762483</v>
+        <v>1.578534248675082</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.369064610886435</v>
+        <v>3.432996610643674</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01593345753526886</v>
+        <v>0.02392242775370373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04711967362170982</v>
+        <v>0.02656407491768772</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3455246552749564</v>
+        <v>0.356683492989619</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8495491460304132</v>
+        <v>0.8736286884757599</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.92810319200431</v>
+        <v>-4.949224122424431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.864026384231124</v>
+        <v>-3.235658371406052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.049220601641083</v>
+        <v>-1.674390349508992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.000886692162915</v>
+        <v>-4.229359118299943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5457089959371187</v>
+        <v>-0.551955262745819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3244446967018575</v>
+        <v>-0.3542056191578477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2944617252015785</v>
+        <v>-0.2441794514451151</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.453313160280514</v>
+        <v>-0.4696354308221693</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.7455179818960279</v>
+        <v>-0.7654275064685812</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.174624457726557</v>
+        <v>1.940346777767395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.352455170648015</v>
+        <v>3.262311276408987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.144919179505005</v>
+        <v>0.3130695329865485</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1053975728383952</v>
+        <v>-0.1140456865288425</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3367877432394304</v>
+        <v>0.3016128944600792</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7263478521686336</v>
+        <v>0.6873544277223039</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04749804068812328</v>
+        <v>0.05391198688092091</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.414550739934022</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02023268481251908</v>
+        <v>0.02023268481251977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2976449478493022</v>
@@ -949,7 +949,7 @@
         <v>-0.08299386175507181</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.003577099733235189</v>
+        <v>0.003577099733235312</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.499757341849294</v>
+        <v>-6.742352522778619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.27448368158655</v>
+        <v>-6.364594935511262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.113603202585446</v>
+        <v>-3.085587950346164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.266707440088537</v>
+        <v>-2.537203233381817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5754105368948378</v>
+        <v>-0.5950699525139596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5843424770065362</v>
+        <v>-0.6012581451288642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4776811676757253</v>
+        <v>-0.5017917590253899</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3294576004311384</v>
+        <v>-0.3584769647804518</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.400129334391821</v>
+        <v>0.8622354458714512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6179599343043874</v>
+        <v>0.9132008975013859</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.343526165283796</v>
+        <v>2.357525485377901</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.295017515117466</v>
+        <v>2.058299060053324</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.222929463345109</v>
+        <v>0.136964197014811</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1339265284914976</v>
+        <v>0.1412144884339766</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6765972750604147</v>
+        <v>0.645361548693025</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4962685937211181</v>
+        <v>0.44742024158289</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.4996346888074966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.1501052741877215</v>
+        <v>-0.1501052741877201</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.305983554741652</v>
@@ -1049,7 +1049,7 @@
         <v>-0.08470617809765024</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.02364278649177863</v>
+        <v>-0.02364278649177842</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.549474743333282</v>
+        <v>-3.439180394085786</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.243970124024024</v>
+        <v>-2.380873766063256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.711159444436315</v>
+        <v>-1.709442128318846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.314113768940744</v>
+        <v>-1.33010083015862</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.431929420044491</v>
+        <v>-0.4218601414738699</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2535464313225066</v>
+        <v>-0.2634705705292964</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2601759524269314</v>
+        <v>-0.2629063199380692</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1846651812443909</v>
+        <v>-0.1914034026591754</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.168649387481685</v>
+        <v>-1.04941553916914</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2135738105334233</v>
+        <v>0.1340270715981754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6594539937549265</v>
+        <v>0.5704498546838574</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9711754273572383</v>
+        <v>1.027991353780935</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1685295363286514</v>
+        <v>-0.1549909956839474</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02546518017170432</v>
+        <v>0.01887467260586221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1295439503387674</v>
+        <v>0.1124711932972063</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1731028643161509</v>
+        <v>0.1825972747339666</v>
       </c>
     </row>
     <row r="19">
